--- a/biology/Botanique/Scenedesmus/Scenedesmus.xlsx
+++ b/biology/Botanique/Scenedesmus/Scenedesmus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scenedesmus est un genre d'algues vertes d'eau douce microscopiques, de la famille des Scenedesmaceae. Elles sont appelées scénédesmes et sont des algues à structure cellulaire variée. Elles possèdent des chlorophylles de type a et b ainsi que des caroténoïdes. Ces algues vertes sont non mobiles et mesurent environ 5 à 30 micromètres de longueur et 8 à 10 micromètres de diamètre. 
-L'espèce Scenedesmus quadricauda a été utilisée comme modèle biologique pour des études d'écotoxicité de pesticides[1]
+L'espèce Scenedesmus quadricauda a été utilisée comme modèle biologique pour des études d'écotoxicité de pesticides
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En général, entre 2 et 32 cellules de Scenedesmus se regroupent en cénobes[note 1],[2]. Les cellules sont unies par une gelée et des appendices en forme d'épine ou d'aiguillon apparaissent sur les cellules les plus externes des colonies[3] ; ces épines auraient un rôle de défense. Dans chaque cellule on trouve un chloroplaste imposant avec un pyrénoïde, ainsi qu'un cytoplasme qui ne contient qu'un seul noyau. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En général, entre 2 et 32 cellules de Scenedesmus se regroupent en cénobes[note 1],. Les cellules sont unies par une gelée et des appendices en forme d'épine ou d'aiguillon apparaissent sur les cellules les plus externes des colonies ; ces épines auraient un rôle de défense. Dans chaque cellule on trouve un chloroplaste imposant avec un pyrénoïde, ainsi qu'un cytoplasme qui ne contient qu'un seul noyau. 
 </t>
         </is>
       </c>
@@ -543,10 +557,11 @@
           <t>Traitement des eaux usées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Scenedesmus est souvent capable de croître dans les eaux usée et est utilisé pour le traitement de ces eaux 
-[4],[5],[6],[7]
 </t>
         </is>
       </c>
@@ -575,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (29 avril 2013)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (29 avril 2013) :
 Scenedesmus aciculatus P.González
 Scenedesmus aculeotatus Reinsch
 Scenedesmus aldavei Hegewald
@@ -675,7 +692,7 @@
 Scenedesmus vesiculosus (Proshkina-Lavrenko) Péterfi
 Scenedesmus wuhanensis Wei
 Scenedesmus wuhuensis S.S.Wang
-Selon ITIS      (29 avril 2013)[9] :
+Selon ITIS      (29 avril 2013) :
 Scenedesmus abundans (Kirchn.) Chodat
 Scenedesmus aculeolatus
 Scenedesmus acuminatus (Lagerheim) Chodat
